--- a/src/main/resources/CreateTableSQLFile/template.xlsx
+++ b/src/main/resources/CreateTableSQLFile/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
   <si>
     <t>数据表中文名称</t>
   </si>
@@ -50,139 +50,355 @@
     <t>注释</t>
   </si>
   <si>
-    <t>产线信息</t>
-  </si>
-  <si>
-    <t>dwd_base_prod_line_info</t>
-  </si>
-  <si>
-    <t>产线编号</t>
-  </si>
-  <si>
-    <t>prod_line_code</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
+    <t>人员就职信息</t>
+  </si>
+  <si>
+    <t>dwd_base_employment_info</t>
+  </si>
+  <si>
+    <t>公司ID</t>
+  </si>
+  <si>
+    <t>comp_id</t>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>公司ID</t>
-  </si>
-  <si>
-    <t>comp_id</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>产线名称</t>
-  </si>
-  <si>
-    <t>prod_line_name</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>产线简称</t>
-  </si>
-  <si>
-    <t>prod_line_abb</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>是否纳入OEE</t>
-  </si>
-  <si>
-    <t>is_oee</t>
-  </si>
-  <si>
-    <t>YES/NO</t>
-  </si>
-  <si>
-    <t>占一级权重</t>
-  </si>
-  <si>
-    <t>prior_by_unit</t>
-  </si>
-  <si>
-    <t>decimal(10,6)</t>
-  </si>
-  <si>
-    <t>占公司权重</t>
-  </si>
-  <si>
-    <t>prior_by_comp</t>
-  </si>
-  <si>
-    <t>产线性质</t>
-  </si>
-  <si>
-    <t>prod_line_nat</t>
-  </si>
-  <si>
-    <t>停机原因群码</t>
-  </si>
-  <si>
-    <t>sdn_rea_code</t>
-  </si>
-  <si>
-    <t>操作责任单位</t>
-  </si>
-  <si>
-    <t>use_dept</t>
-  </si>
-  <si>
-    <t>维护责任单位</t>
-  </si>
-  <si>
-    <t>maint_respo_dept</t>
-  </si>
-  <si>
-    <t>对应设备系统编号</t>
-  </si>
-  <si>
-    <t>dev_sys_no</t>
-  </si>
-  <si>
-    <t>工艺单元</t>
-  </si>
-  <si>
-    <t>craft_unit</t>
-  </si>
-  <si>
-    <t>工艺单元号</t>
-  </si>
-  <si>
-    <t>craft_unit_no</t>
-  </si>
-  <si>
-    <t>对应制造部编号</t>
-  </si>
-  <si>
-    <t>manf_code</t>
-  </si>
-  <si>
-    <t>工序</t>
-  </si>
-  <si>
-    <t>proc</t>
-  </si>
-  <si>
-    <t>运行状态</t>
-  </si>
-  <si>
-    <t>run_stat</t>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <t>Y 正常，N 停用</t>
+    <t>职工编号 </t>
+  </si>
+  <si>
+    <t>empno</t>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+  </si>
+  <si>
+    <t>职工类别 </t>
+  </si>
+  <si>
+    <t>emptype</t>
+  </si>
+  <si>
+    <t>varchar2(6)</t>
+  </si>
+  <si>
+    <t>薪给类别 </t>
+  </si>
+  <si>
+    <t>salarytype</t>
+  </si>
+  <si>
+    <t>部门 </t>
+  </si>
+  <si>
+    <t>deptno</t>
+  </si>
+  <si>
+    <t>专长代码 </t>
+  </si>
+  <si>
+    <t>classify</t>
+  </si>
+  <si>
+    <t>专长序号 </t>
+  </si>
+  <si>
+    <t>classifysrlno</t>
+  </si>
+  <si>
+    <t>职称 </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>代理服务单位 </t>
+  </si>
+  <si>
+    <t>agentdeptno</t>
+  </si>
+  <si>
+    <t>代理职务 </t>
+  </si>
+  <si>
+    <t>agenttitle</t>
+  </si>
+  <si>
+    <t>兼任服务单位 </t>
+  </si>
+  <si>
+    <t>concrntdeptno</t>
+  </si>
+  <si>
+    <t>兼任职务 </t>
+  </si>
+  <si>
+    <t>concrnttitle</t>
+  </si>
+  <si>
+    <t>核定职等/阶 </t>
+  </si>
+  <si>
+    <t>origrade</t>
+  </si>
+  <si>
+    <t>目前职位代号 </t>
+  </si>
+  <si>
+    <t>post_code</t>
+  </si>
+  <si>
+    <t>现支薪等/阶 </t>
+  </si>
+  <si>
+    <t>crntgrade</t>
+  </si>
+  <si>
+    <t>离职日期 </t>
+  </si>
+  <si>
+    <t>tmntdate</t>
+  </si>
+  <si>
+    <t>varchar2(8)</t>
+  </si>
+  <si>
+    <t>停薪日期 </t>
+  </si>
+  <si>
+    <t>suspenddate</t>
+  </si>
+  <si>
+    <t>离职类型 </t>
+  </si>
+  <si>
+    <t>tmnttype</t>
+  </si>
+  <si>
+    <t>离职原因类别 </t>
+  </si>
+  <si>
+    <t>tmntreason</t>
+  </si>
+  <si>
+    <t>离职单文号 </t>
+  </si>
+  <si>
+    <t>tmntdocno</t>
+  </si>
+  <si>
+    <t>离职原因备注说明 </t>
+  </si>
+  <si>
+    <t>tmntreasondesc</t>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+  </si>
+  <si>
+    <t>任用类别 </t>
+  </si>
+  <si>
+    <t>empmethod</t>
+  </si>
+  <si>
+    <t>职类 </t>
+  </si>
+  <si>
+    <t>titlecategory</t>
+  </si>
+  <si>
+    <t>服务地点 </t>
+  </si>
+  <si>
+    <t>workplace</t>
+  </si>
+  <si>
+    <t>到职日期 </t>
+  </si>
+  <si>
+    <t>empdate</t>
+  </si>
+  <si>
+    <t>起薪日期 </t>
+  </si>
+  <si>
+    <t>salarydate</t>
+  </si>
+  <si>
+    <t>集团到职日期 </t>
+  </si>
+  <si>
+    <t>grpdate</t>
+  </si>
+  <si>
+    <t>参加工作时间 </t>
+  </si>
+  <si>
+    <t>duedate</t>
+  </si>
+  <si>
+    <t>试用月数 </t>
+  </si>
+  <si>
+    <t>trialperiod</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>工龄起算日 </t>
+  </si>
+  <si>
+    <t>senioritydate</t>
+  </si>
+  <si>
+    <t>是否有抗洪抢险津贴</t>
+  </si>
+  <si>
+    <t>allowan</t>
+  </si>
+  <si>
+    <t>varchar2(2)</t>
+  </si>
+  <si>
+    <t>停薪日数累计 </t>
+  </si>
+  <si>
+    <t>suspenddays</t>
+  </si>
+  <si>
+    <t>复职日期 </t>
+  </si>
+  <si>
+    <t>resumpdate</t>
+  </si>
+  <si>
+    <t>带薪年假请算日期 </t>
+  </si>
+  <si>
+    <t>conttmntdate</t>
+  </si>
+  <si>
+    <t>有无配偶 </t>
+  </si>
+  <si>
+    <t>hasspouse</t>
+  </si>
+  <si>
+    <t>所得税扣缴方式 </t>
+  </si>
+  <si>
+    <t>taxkind</t>
+  </si>
+  <si>
+    <t>劳务公司 </t>
+  </si>
+  <si>
+    <t>labourco</t>
+  </si>
+  <si>
+    <t>成本中心 </t>
+  </si>
+  <si>
+    <t>costcenter</t>
+  </si>
+  <si>
+    <t>归属法人公司 </t>
+  </si>
+  <si>
+    <t>belongcomp</t>
+  </si>
+  <si>
+    <t>扶养人数 </t>
+  </si>
+  <si>
+    <t>dpntcnt</t>
+  </si>
+  <si>
+    <t>储备/见习主管 </t>
+  </si>
+  <si>
+    <t>middlepay</t>
+  </si>
+  <si>
+    <t>人事档案编号 </t>
+  </si>
+  <si>
+    <t>ottype</t>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+  </si>
+  <si>
+    <t>是否算奖金 </t>
+  </si>
+  <si>
+    <t>monthbonustype</t>
+  </si>
+  <si>
+    <t>资料建立人 </t>
+  </si>
+  <si>
+    <t>createempno</t>
+  </si>
+  <si>
+    <t>资料建立日期 </t>
+  </si>
+  <si>
+    <t>createdate</t>
+  </si>
+  <si>
+    <t>资料建立时间 </t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>资料异动人 </t>
+  </si>
+  <si>
+    <t>updateempno</t>
+  </si>
+  <si>
+    <t>资料异动日期 </t>
+  </si>
+  <si>
+    <t>updatedate</t>
+  </si>
+  <si>
+    <t>资料异动时间 </t>
+  </si>
+  <si>
+    <t>updatetime</t>
+  </si>
+  <si>
+    <t>兼任服务单位2 </t>
+  </si>
+  <si>
+    <t>concrntdeptno2</t>
+  </si>
+  <si>
+    <t>兼任职务2 </t>
+  </si>
+  <si>
+    <t>concrnttitle2</t>
+  </si>
+  <si>
+    <t>兼任服务单位3 </t>
+  </si>
+  <si>
+    <t>concrntdeptno3</t>
+  </si>
+  <si>
+    <t>兼任职务3 </t>
+  </si>
+  <si>
+    <t>concrnttitle3</t>
   </si>
 </sst>
 </file>
@@ -361,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,18 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE5F6FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C400"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -587,6 +791,66 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,7 +978,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,119 +990,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,16 +1112,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,10 +1661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G18"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1430,16 +1706,16 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6"/>
@@ -1451,13 +1727,13 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="6"/>
@@ -1473,10 +1749,10 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="6"/>
@@ -1492,11 +1768,11 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1509,18 +1785,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1530,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1549,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1568,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1587,13 +1861,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1606,16 +1880,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -1625,16 +1899,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -1644,16 +1918,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -1663,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -1682,16 +1956,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
@@ -1701,16 +1975,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -1720,16 +1994,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1739,18 +2013,700 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/CreateTableSQLFile/template.xlsx
+++ b/src/main/resources/CreateTableSQLFile/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
   <si>
     <t>数据表中文名称</t>
   </si>
@@ -50,10 +50,37 @@
     <t>注释</t>
   </si>
   <si>
-    <t>机组编码</t>
-  </si>
-  <si>
-    <t>dwd_base_machine_code</t>
+    <t>产线信息</t>
+  </si>
+  <si>
+    <t>dwd_base_prod_line_info</t>
+  </si>
+  <si>
+    <t>产线ID</t>
+  </si>
+  <si>
+    <t>prod_line_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>递增，物理主键</t>
+  </si>
+  <si>
+    <t>产线编码</t>
+  </si>
+  <si>
+    <t>prod_line_code</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>产线唯一编码，业务主键</t>
   </si>
   <si>
     <t>公司ID</t>
@@ -62,46 +89,238 @@
     <t>comp_id</t>
   </si>
   <si>
-    <t>varchar2(15)</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>制程类别</t>
-  </si>
-  <si>
-    <t>proc_type</t>
-  </si>
-  <si>
-    <t>varchar2(5)</t>
-  </si>
-  <si>
-    <t>JJ：机加工,HR：热轧,STL：炼钢,CR：冷轧,WP：焊管</t>
-  </si>
-  <si>
-    <t>线别代号</t>
-  </si>
-  <si>
-    <t>mill_id</t>
-  </si>
-  <si>
-    <t>varchar2(6)</t>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
-  <si>
-    <t>mill_cn_name</t>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-  </si>
-  <si>
-    <t>英文名称</t>
-  </si>
-  <si>
-    <t>mill_en_name</t>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>产线名称</t>
+  </si>
+  <si>
+    <t>prod_line_name</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>产线简称</t>
+  </si>
+  <si>
+    <t>prod_line_short_name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+  <si>
+    <t>run_stat</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>Y 正常，N 停用</t>
+  </si>
+  <si>
+    <t>工艺单元</t>
+  </si>
+  <si>
+    <t>craft_unit</t>
+  </si>
+  <si>
+    <t>工艺单元号</t>
+  </si>
+  <si>
+    <t>craft_unit_no</t>
+  </si>
+  <si>
+    <t>制造部编号</t>
+  </si>
+  <si>
+    <t>manf_code</t>
+  </si>
+  <si>
+    <t>工序名称</t>
+  </si>
+  <si>
+    <t>proc_name</t>
+  </si>
+  <si>
+    <t>自定义，待业主治理团队确认</t>
+  </si>
+  <si>
+    <t>铁区MES产线编码</t>
+  </si>
+  <si>
+    <t>iron_mes_prod_line_code</t>
+  </si>
+  <si>
+    <t>铁区MES产线名称</t>
+  </si>
+  <si>
+    <t>iron_mes_prod_line_name</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>ERP产线编码</t>
+  </si>
+  <si>
+    <t>erp_prod_line_code</t>
+  </si>
+  <si>
+    <t>ERP产线名称</t>
+  </si>
+  <si>
+    <t>erp_prod_line_name</t>
+  </si>
+  <si>
+    <t>ESP_MES产线编码</t>
+  </si>
+  <si>
+    <t>esp_mes_prod_line_code</t>
+  </si>
+  <si>
+    <t>ESP_MES产线名称</t>
+  </si>
+  <si>
+    <t>esp_mes_prod_line_name</t>
+  </si>
+  <si>
+    <t>老区炼钢MES产线编码</t>
+  </si>
+  <si>
+    <t>old_steel_mes_prod_line_code</t>
+  </si>
+  <si>
+    <t>老区炼钢MES产线名称</t>
+  </si>
+  <si>
+    <t>old_steel_mes_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统1产线编码</t>
+  </si>
+  <si>
+    <t>sys1_prod_line_code</t>
+  </si>
+  <si>
+    <t>预留字段</t>
+  </si>
+  <si>
+    <t>系统1产线名称</t>
+  </si>
+  <si>
+    <t>sys1_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统2产线编码</t>
+  </si>
+  <si>
+    <t>sys2_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统2产线名称</t>
+  </si>
+  <si>
+    <t>sys2_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统3产线编码</t>
+  </si>
+  <si>
+    <t>sys3_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统3产线名称</t>
+  </si>
+  <si>
+    <t>sys3_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统4产线编码</t>
+  </si>
+  <si>
+    <t>sys4_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统4产线名称</t>
+  </si>
+  <si>
+    <t>sys4_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统5产线编码</t>
+  </si>
+  <si>
+    <t>sys5_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统5产线名称</t>
+  </si>
+  <si>
+    <t>sys5_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统6产线编码</t>
+  </si>
+  <si>
+    <t>sys6_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统6产线名称</t>
+  </si>
+  <si>
+    <t>sys6_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统7产线编码</t>
+  </si>
+  <si>
+    <t>sys7_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统7产线名称</t>
+  </si>
+  <si>
+    <t>sys7_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统8产线编码</t>
+  </si>
+  <si>
+    <t>sys8_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统8产线名称</t>
+  </si>
+  <si>
+    <t>sys8_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统9产线编码</t>
+  </si>
+  <si>
+    <t>sys9_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统9产线名称</t>
+  </si>
+  <si>
+    <t>sys9_prod_line_name</t>
+  </si>
+  <si>
+    <t>系统10产线编码</t>
+  </si>
+  <si>
+    <t>sys10_prod_line_code</t>
+  </si>
+  <si>
+    <t>系统10产线名称</t>
+  </si>
+  <si>
+    <t>sys10_prod_line_name</t>
   </si>
   <si>
     <t>创建人工号</t>
@@ -110,7 +329,7 @@
     <t>creator_no</t>
   </si>
   <si>
-    <t>varchar2(10)</t>
+    <t>varchar(15)</t>
   </si>
   <si>
     <t>创建日期</t>
@@ -125,19 +344,13 @@
     <t>最后更新人工号</t>
   </si>
   <si>
-    <t>final_updater_no</t>
+    <t>updater_no</t>
   </si>
   <si>
     <t>最后更新日期</t>
   </si>
   <si>
-    <t>final_update_date</t>
-  </si>
-  <si>
-    <t>线别名称</t>
-  </si>
-  <si>
-    <t>line_code</t>
+    <t>update_date</t>
   </si>
 </sst>
 </file>
@@ -535,13 +748,13 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -796,24 +1009,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,15 +1022,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1355,10 +1554,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1368,6 +1567,7 @@
     <col min="3" max="3" width="25.7884615384615" customWidth="1"/>
     <col min="4" max="4" width="25.4807692307692" customWidth="1"/>
     <col min="5" max="5" width="23.0769230769231" customWidth="1"/>
+    <col min="7" max="7" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1400,19 +1600,21 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -1421,20 +1623,18 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1444,19 +1644,17 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8"/>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -1465,17 +1663,17 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -1484,17 +1682,17 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -1503,17 +1701,19 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -1522,17 +1722,17 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -1541,17 +1741,17 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -1560,36 +1760,686 @@
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/CreateTableSQLFile/template.xlsx
+++ b/src/main/resources/CreateTableSQLFile/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="29100" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>数据表中文名称</t>
   </si>
@@ -50,307 +50,130 @@
     <t>注释</t>
   </si>
   <si>
-    <t>产线信息</t>
-  </si>
-  <si>
-    <t>dwd_base_prod_line_info</t>
-  </si>
-  <si>
-    <t>产线ID</t>
-  </si>
-  <si>
-    <t>prod_line_id</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>内控钢种（GE）成分信息</t>
+  </si>
+  <si>
+    <t>dwd_base_internal_stc_ge_info</t>
+  </si>
+  <si>
+    <t>公司别</t>
+  </si>
+  <si>
+    <t>comp_id</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>递增，物理主键</t>
-  </si>
-  <si>
-    <t>产线编码</t>
-  </si>
-  <si>
-    <t>prod_line_code</t>
+    <t>数据库号</t>
+  </si>
+  <si>
+    <t>lib_id</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>索引号</t>
+  </si>
+  <si>
+    <t>index_id</t>
+  </si>
+  <si>
+    <t>厚度序号</t>
+  </si>
+  <si>
+    <t>gauge_seq_no</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>seq_no</t>
+  </si>
+  <si>
+    <t>化学元素</t>
+  </si>
+  <si>
+    <t>element</t>
   </si>
   <si>
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>产线唯一编码，业务主键</t>
-  </si>
-  <si>
-    <t>公司ID</t>
-  </si>
-  <si>
-    <t>comp_id</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>产线名称</t>
-  </si>
-  <si>
-    <t>prod_line_name</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>产线简称</t>
-  </si>
-  <si>
-    <t>prod_line_short_name</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>运行状态</t>
-  </si>
-  <si>
-    <t>run_stat</t>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <t>Y 正常，N 停用</t>
-  </si>
-  <si>
-    <t>工艺单元</t>
-  </si>
-  <si>
-    <t>craft_unit</t>
-  </si>
-  <si>
-    <t>工艺单元号</t>
-  </si>
-  <si>
-    <t>craft_unit_no</t>
-  </si>
-  <si>
-    <t>制造部编号</t>
-  </si>
-  <si>
-    <t>manf_code</t>
-  </si>
-  <si>
-    <t>工序名称</t>
-  </si>
-  <si>
-    <t>proc_name</t>
-  </si>
-  <si>
-    <t>自定义，待业主治理团队确认</t>
-  </si>
-  <si>
-    <t>铁区MES产线编码</t>
-  </si>
-  <si>
-    <t>iron_mes_prod_line_code</t>
-  </si>
-  <si>
-    <t>铁区MES产线名称</t>
-  </si>
-  <si>
-    <t>iron_mes_prod_line_name</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>ERP产线编码</t>
-  </si>
-  <si>
-    <t>erp_prod_line_code</t>
-  </si>
-  <si>
-    <t>ERP产线名称</t>
-  </si>
-  <si>
-    <t>erp_prod_line_name</t>
-  </si>
-  <si>
-    <t>ESP_MES产线编码</t>
-  </si>
-  <si>
-    <t>esp_mes_prod_line_code</t>
-  </si>
-  <si>
-    <t>ESP_MES产线名称</t>
-  </si>
-  <si>
-    <t>esp_mes_prod_line_name</t>
-  </si>
-  <si>
-    <t>老区炼钢MES产线编码</t>
-  </si>
-  <si>
-    <t>old_steel_mes_prod_line_code</t>
-  </si>
-  <si>
-    <t>老区炼钢MES产线名称</t>
-  </si>
-  <si>
-    <t>old_steel_mes_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统1产线编码</t>
-  </si>
-  <si>
-    <t>sys1_prod_line_code</t>
-  </si>
-  <si>
-    <t>预留字段</t>
-  </si>
-  <si>
-    <t>系统1产线名称</t>
-  </si>
-  <si>
-    <t>sys1_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统2产线编码</t>
-  </si>
-  <si>
-    <t>sys2_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统2产线名称</t>
-  </si>
-  <si>
-    <t>sys2_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统3产线编码</t>
-  </si>
-  <si>
-    <t>sys3_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统3产线名称</t>
-  </si>
-  <si>
-    <t>sys3_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统4产线编码</t>
-  </si>
-  <si>
-    <t>sys4_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统4产线名称</t>
-  </si>
-  <si>
-    <t>sys4_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统5产线编码</t>
-  </si>
-  <si>
-    <t>sys5_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统5产线名称</t>
-  </si>
-  <si>
-    <t>sys5_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统6产线编码</t>
-  </si>
-  <si>
-    <t>sys6_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统6产线名称</t>
-  </si>
-  <si>
-    <t>sys6_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统7产线编码</t>
-  </si>
-  <si>
-    <t>sys7_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统7产线名称</t>
-  </si>
-  <si>
-    <t>sys7_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统8产线编码</t>
-  </si>
-  <si>
-    <t>sys8_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统8产线名称</t>
-  </si>
-  <si>
-    <t>sys8_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统9产线编码</t>
-  </si>
-  <si>
-    <t>sys9_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统9产线名称</t>
-  </si>
-  <si>
-    <t>sys9_prod_line_name</t>
-  </si>
-  <si>
-    <t>系统10产线编码</t>
-  </si>
-  <si>
-    <t>sys10_prod_line_code</t>
-  </si>
-  <si>
-    <t>系统10产线名称</t>
-  </si>
-  <si>
-    <t>sys10_prod_line_name</t>
-  </si>
-  <si>
-    <t>创建人工号</t>
-  </si>
-  <si>
-    <t>creator_no</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>创建日期</t>
-  </si>
-  <si>
-    <t>create_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>最后更新人工号</t>
-  </si>
-  <si>
-    <t>updater_no</t>
-  </si>
-  <si>
-    <t>最后更新日期</t>
-  </si>
-  <si>
-    <t>update_date</t>
+    <t>附加元素注记</t>
+  </si>
+  <si>
+    <t>element_sup</t>
+  </si>
+  <si>
+    <t>最小值管制码</t>
+  </si>
+  <si>
+    <t>min_value_code</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>min_value</t>
+  </si>
+  <si>
+    <t>number(50)</t>
+  </si>
+  <si>
+    <t>最大值管制码</t>
+  </si>
+  <si>
+    <t>max_value_code</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>max_value</t>
+  </si>
+  <si>
+    <t>目标值</t>
+  </si>
+  <si>
+    <t>aim_value</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>打印位数</t>
+  </si>
+  <si>
+    <t>print_char</t>
+  </si>
+  <si>
+    <t>是否打印</t>
+  </si>
+  <si>
+    <t>print_req</t>
+  </si>
+  <si>
+    <t>打印数量</t>
+  </si>
+  <si>
+    <t>print_num</t>
+  </si>
+  <si>
+    <t>数据加载时间</t>
+  </si>
+  <si>
+    <t>etl_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -363,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,10 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -383,6 +207,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -723,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -750,6 +580,32 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -879,137 +735,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,18 +873,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1554,16 +1427,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.2307692307692" customWidth="1"/>
-    <col min="2" max="2" width="25.9519230769231" customWidth="1"/>
+    <col min="2" max="2" width="30.8461538461538" customWidth="1"/>
     <col min="3" max="3" width="25.7884615384615" customWidth="1"/>
     <col min="4" max="4" width="25.4807692307692" customWidth="1"/>
     <col min="5" max="5" width="23.0769230769231" customWidth="1"/>
@@ -1603,20 +1476,18 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1624,18 +1495,18 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -1645,16 +1516,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -1664,16 +1537,18 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -1683,16 +1558,18 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -1702,18 +1579,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -1723,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -1742,16 +1617,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -1761,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -1780,18 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
@@ -1800,17 +1673,17 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -1819,17 +1692,17 @@
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
@@ -1838,17 +1711,17 @@
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -1857,17 +1730,17 @@
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
@@ -1876,17 +1749,17 @@
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -1895,17 +1768,17 @@
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
@@ -1914,532 +1787,17 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
